--- a/模板/周报模板.xlsx
+++ b/模板/周报模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\gitfile\UXD202005_Repository\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F50DDD-D302-4E5F-A0E3-423A4988D5DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167D6995-1109-4388-9DB2-CC69CC9CBD90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>周一周二</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,6 +96,34 @@
   </si>
   <si>
     <t>个人总结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -299,25 +327,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -341,15 +354,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -366,6 +379,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -664,373 +692,407 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="17" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="17" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="17" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="17" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="17" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="24"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="17" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="17" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="17" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="17" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="17" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="4" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="5">
         <v>1</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="17"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="17"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="5">
         <v>3</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="17"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="5">
         <v>4</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="17"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:M10"/>
     <mergeCell ref="B11:L11"/>
@@ -1038,8 +1100,6 @@
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="I2:I7"/>
     <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
